--- a/cirurgias_cp_1ºtrim_limpos.xlsx
+++ b/cirurgias_cp_1ºtrim_limpos.xlsx
@@ -404,6 +404,9 @@
     <t>LARINGECTOMIA TOTAL + EC II-IV BILATERAL + TIREPOIDECYOMIA TOTAL + FECHAMENTO + FECHAMENTO PRIMARIO DE FARINGE + PASSAGEM DE PROVOX + DRENAGEM CERVICAL COM PORTOVAC</t>
   </si>
   <si>
+    <t>LARINGECTOMIA TOTAL</t>
+  </si>
+  <si>
     <t>FARINGECTOMIA TOTAL</t>
   </si>
   <si>
@@ -689,9 +692,6 @@
     <t>BUCOFARINGECTOMIA ESQ. + LINFADENECTOMIA RADICAL MODIFICADA BILATERAL + RETALHO MIOFASCIOCUTANEO + TRAQUEOSTOMIA</t>
   </si>
   <si>
-    <t>TRAQUEOSTOMIA DE URGENCIA + LARINGOSCOPIA DE SUSPENSÃO</t>
-  </si>
-  <si>
     <t>ALINE</t>
   </si>
   <si>
@@ -806,6 +806,9 @@
     <t>LARINGECTOMIA PARCIAL FRONTO-LATERAL DIR. + RETALHO MUSCULAR</t>
   </si>
   <si>
+    <t>LARINGECTOMIA PARCIAL ABERTA</t>
+  </si>
+  <si>
     <t>ESVAZIAMENTO RADICAL MODIFICADO UNILATERAL + ESVAZIAMENTO CERVICAL RECORRENCIAL UNILATERAL</t>
   </si>
   <si>
@@ -894,9 +897,6 @@
   </si>
   <si>
     <t>RESSECCAO DE LESAO EM LABIO INFERIOR</t>
-  </si>
-  <si>
-    <t>LARINGECTOMIA TOTAL</t>
   </si>
   <si>
     <t>sepse</t>
@@ -1388,7 +1388,7 @@
     <col customWidth="1" min="8" max="8" width="21.29"/>
     <col customWidth="1" min="9" max="9" width="19.29"/>
     <col customWidth="1" min="10" max="10" width="15.71"/>
-    <col customWidth="1" min="11" max="11" width="20.43"/>
+    <col customWidth="1" min="11" max="11" width="167.57"/>
     <col customWidth="1" min="12" max="15" width="10.0"/>
     <col customWidth="1" min="16" max="17" width="15.71"/>
     <col customWidth="1" min="18" max="18" width="30.29"/>
@@ -4298,8 +4298,8 @@
       <c r="J43" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>127</v>
+      <c r="K43" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="L43" s="10">
         <v>310.0</v>
@@ -4349,7 +4349,7 @@
         <v>66</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>27</v>
@@ -4485,7 +4485,7 @@
         <v>66</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>27</v>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="Q46" s="21"/>
       <c r="R46" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S46" s="19"/>
       <c r="T46" s="19"/>
@@ -4555,7 +4555,7 @@
         <v>66</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>27</v>
@@ -4588,7 +4588,7 @@
         <v>47</v>
       </c>
       <c r="P47" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q47" s="13"/>
       <c r="R47" s="14">
@@ -4629,7 +4629,7 @@
         <v>27</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H48" s="9">
         <v>45684.47916666666</v>
@@ -4691,7 +4691,7 @@
         <v>25</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>27</v>
@@ -4724,7 +4724,7 @@
         <v>47</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q49" s="13"/>
       <c r="R49" s="14">
@@ -4759,7 +4759,7 @@
         <v>25</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>27</v>
@@ -4827,7 +4827,7 @@
         <v>25</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>27</v>
@@ -4845,7 +4845,7 @@
         <v>93</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L51" s="10">
         <v>225.0</v>
@@ -4895,7 +4895,7 @@
         <v>25</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>27</v>
@@ -5028,7 +5028,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>33</v>
@@ -5099,7 +5099,7 @@
         <v>66</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>39</v>
@@ -5167,7 +5167,7 @@
         <v>95</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>27</v>
@@ -5232,10 +5232,10 @@
         <v>126</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>27</v>
@@ -5253,7 +5253,7 @@
         <v>93</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L57" s="10">
         <v>185.0</v>
@@ -5300,7 +5300,7 @@
         <v>126</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>116</v>
@@ -5368,10 +5368,10 @@
         <v>126</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>27</v>
@@ -5436,10 +5436,10 @@
         <v>65</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>27</v>
@@ -5504,10 +5504,10 @@
         <v>65</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>79</v>
@@ -5572,10 +5572,10 @@
         <v>24</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>27</v>
@@ -5608,7 +5608,7 @@
         <v>47</v>
       </c>
       <c r="P62" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q62" s="13"/>
       <c r="R62" s="14">
@@ -5640,16 +5640,16 @@
         <v>24</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H63" s="9">
         <v>45691.4375</v>
@@ -5708,7 +5708,7 @@
         <v>24</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>33</v>
@@ -5776,7 +5776,7 @@
         <v>24</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>33</v>
@@ -5847,7 +5847,7 @@
         <v>25</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>27</v>
@@ -5912,10 +5912,10 @@
         <v>37</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>27</v>
@@ -5933,7 +5933,7 @@
         <v>93</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L67" s="10">
         <v>155.0</v>
@@ -5983,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>39</v>
@@ -6066,7 +6066,7 @@
         <v>45693.40972222222</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>46</v>
@@ -6118,7 +6118,7 @@
         <v>45</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>33</v>
@@ -6186,10 +6186,10 @@
         <v>37</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F71" s="19" t="s">
         <v>27</v>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="Q71" s="21"/>
       <c r="R71" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S71" s="19"/>
       <c r="T71" s="19"/>
@@ -6259,7 +6259,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>27</v>
@@ -6324,7 +6324,7 @@
         <v>45</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>46</v>
@@ -6342,7 +6342,7 @@
         <v>45693.79166666666</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>46</v>
@@ -6392,10 +6392,10 @@
         <v>53</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>39</v>
@@ -6460,10 +6460,10 @@
         <v>53</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>77</v>
@@ -6528,7 +6528,7 @@
         <v>57</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>46</v>
@@ -6593,13 +6593,13 @@
         <v>126</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>102</v>
@@ -6661,16 +6661,16 @@
         <v>126</v>
       </c>
       <c r="D78" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="G78" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H78" s="9">
         <v>45696.36111111111</v>
@@ -6729,13 +6729,13 @@
         <v>126</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>44</v>
@@ -6747,7 +6747,7 @@
         <v>45696.40277777778</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>78</v>
@@ -6797,10 +6797,10 @@
         <v>24</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>27</v>
@@ -6815,7 +6815,7 @@
         <v>45698.91666666666</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>85</v>
@@ -6865,10 +6865,10 @@
         <v>24</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>27</v>
@@ -6933,10 +6933,10 @@
         <v>24</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>39</v>
@@ -6998,10 +6998,10 @@
         <v>37</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>27</v>
@@ -7016,7 +7016,7 @@
         <v>45700.76388888889</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>85</v>
@@ -7066,10 +7066,10 @@
         <v>37</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>27</v>
@@ -7087,7 +7087,7 @@
         <v>93</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L84" s="10">
         <v>140.0</v>
@@ -7134,10 +7134,10 @@
         <v>45</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>39</v>
@@ -7149,7 +7149,7 @@
         <v>45700.82291666666</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K85" s="10" t="s">
         <v>52</v>
@@ -7199,10 +7199,10 @@
         <v>37</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>39</v>
@@ -7264,10 +7264,10 @@
         <v>53</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>27</v>
@@ -7332,10 +7332,10 @@
         <v>53</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>39</v>
@@ -7400,7 +7400,7 @@
         <v>25</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>39</v>
@@ -7465,10 +7465,10 @@
         <v>126</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>27</v>
@@ -7483,7 +7483,7 @@
         <v>45702.625</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K90" s="10" t="s">
         <v>41</v>
@@ -7551,7 +7551,7 @@
         <v>45702.76736111111</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K91" s="11" t="s">
         <v>26</v>
@@ -7601,10 +7601,10 @@
         <v>126</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>27</v>
@@ -7621,8 +7621,8 @@
       <c r="J92" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K92" s="10" t="s">
-        <v>199</v>
+      <c r="K92" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="L92" s="10">
         <v>295.0</v>
@@ -7669,7 +7669,7 @@
         <v>126</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>33</v>
@@ -7740,7 +7740,7 @@
         <v>25</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>27</v>
@@ -7755,7 +7755,7 @@
         <v>45702.77777777778</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K94" s="10" t="s">
         <v>78</v>
@@ -7808,7 +7808,7 @@
         <v>123</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>27</v>
@@ -7823,7 +7823,7 @@
         <v>45702.72222222222</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K95" s="10" t="s">
         <v>70</v>
@@ -7873,7 +7873,7 @@
         <v>24</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>33</v>
@@ -7941,7 +7941,7 @@
         <v>24</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>59</v>
@@ -7959,7 +7959,7 @@
         <v>45705.41666666666</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K97" s="11" t="s">
         <v>59</v>
@@ -8009,10 +8009,10 @@
         <v>24</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>27</v>
@@ -8027,10 +8027,10 @@
         <v>45705.65625</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L98" s="10">
         <v>190.0</v>
@@ -8077,7 +8077,7 @@
         <v>24</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>59</v>
@@ -8086,7 +8086,7 @@
         <v>27</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H99" s="9">
         <v>45705.48611111111</v>
@@ -8116,7 +8116,7 @@
         <v>55</v>
       </c>
       <c r="Q99" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R99" s="14">
         <v>45706.819444444445</v>
@@ -8215,7 +8215,7 @@
         <v>45</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>74</v>
@@ -8233,7 +8233,7 @@
         <v>45707.64583333334</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>74</v>
@@ -8283,10 +8283,10 @@
         <v>45</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>39</v>
@@ -8301,7 +8301,7 @@
         <v>45707.63888888889</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K102" s="10" t="s">
         <v>92</v>
@@ -8351,10 +8351,10 @@
         <v>37</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>27</v>
@@ -8372,7 +8372,7 @@
         <v>93</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L103" s="10">
         <v>250.0</v>
@@ -8487,10 +8487,10 @@
         <v>53</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>27</v>
@@ -8508,7 +8508,7 @@
         <v>93</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L105" s="10">
         <v>380.0</v>
@@ -8555,10 +8555,10 @@
         <v>53</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>39</v>
@@ -8623,10 +8623,10 @@
         <v>126</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>27</v>
@@ -8691,10 +8691,10 @@
         <v>65</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>27</v>
@@ -8709,10 +8709,10 @@
         <v>45709.61805555555</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L108" s="10">
         <v>160.0</v>
@@ -8759,10 +8759,10 @@
         <v>126</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>27</v>
@@ -8777,10 +8777,10 @@
         <v>45709.60763888889</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L109" s="10">
         <v>160.0</v>
@@ -8827,10 +8827,10 @@
         <v>65</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>39</v>
@@ -8845,7 +8845,7 @@
         <v>45709.62152777778</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K110" s="10" t="s">
         <v>52</v>
@@ -8895,10 +8895,10 @@
         <v>24</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>27</v>
@@ -8966,7 +8966,7 @@
         <v>25</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>77</v>
@@ -8984,7 +8984,7 @@
         <v>224</v>
       </c>
       <c r="K112" s="11" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="L112" s="10">
         <v>215.0</v>
@@ -9120,7 +9120,7 @@
         <v>93</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L114" s="10">
         <v>245.0</v>
@@ -9237,7 +9237,7 @@
         <v>45</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>59</v>
@@ -9452,7 +9452,7 @@
         <v>27</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H119" s="9">
         <v>45715.32638888889</v>
@@ -9464,7 +9464,7 @@
         <v>93</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L119" s="10">
         <v>220.0</v>
@@ -9511,7 +9511,7 @@
         <v>53</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>46</v>
@@ -9529,7 +9529,7 @@
         <v>45715.35416666666</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K120" s="10" t="s">
         <v>46</v>
@@ -9579,7 +9579,7 @@
         <v>126</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>237</v>
@@ -9736,7 +9736,7 @@
         <v>73</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L123" s="10">
         <v>270.0</v>
@@ -9783,7 +9783,7 @@
         <v>126</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>240</v>
@@ -9801,7 +9801,7 @@
         <v>45716.63888888889</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K124" s="10" t="s">
         <v>35</v>
@@ -9851,7 +9851,7 @@
         <v>126</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>241</v>
@@ -9987,7 +9987,7 @@
         <v>65</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>46</v>
@@ -10145,7 +10145,7 @@
         <v>45721.85416666666</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K129" s="10" t="s">
         <v>116</v>
@@ -10166,7 +10166,7 @@
         <v>249</v>
       </c>
       <c r="Q129" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R129" s="14">
         <v>45723.416666666664</v>
@@ -10333,7 +10333,7 @@
         <v>53</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>251</v>
@@ -10623,7 +10623,7 @@
         <v>45726.54166666666</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K136" s="10" t="s">
         <v>35</v>
@@ -10691,7 +10691,7 @@
         <v>45726.4375</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K137" s="10" t="s">
         <v>35</v>
@@ -10812,7 +10812,7 @@
         <v>25</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>39</v>
@@ -10877,7 +10877,7 @@
         <v>45</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E140" s="10" t="s">
         <v>33</v>
@@ -10895,7 +10895,7 @@
         <v>45728.78125</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K140" s="10" t="s">
         <v>35</v>
@@ -10945,7 +10945,7 @@
         <v>37</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>255</v>
@@ -10966,7 +10966,7 @@
         <v>93</v>
       </c>
       <c r="K141" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L141" s="10">
         <v>290.0</v>
@@ -11013,7 +11013,7 @@
         <v>45</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>59</v>
@@ -11031,7 +11031,7 @@
         <v>45728.63541666666</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K142" s="11" t="s">
         <v>59</v>
@@ -11081,7 +11081,7 @@
         <v>45</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>46</v>
@@ -11099,7 +11099,7 @@
         <v>45728.84375</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K143" s="10" t="s">
         <v>46</v>
@@ -11149,7 +11149,7 @@
         <v>53</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>258</v>
@@ -11170,7 +11170,7 @@
         <v>93</v>
       </c>
       <c r="K144" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L144" s="10">
         <v>270.0</v>
@@ -11303,7 +11303,7 @@
         <v>45729.36458333334</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K146" s="10" t="s">
         <v>46</v>
@@ -11371,7 +11371,7 @@
         <v>45729.52777777778</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K147" s="10" t="s">
         <v>46</v>
@@ -11568,7 +11568,7 @@
         <v>27</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H150" s="9">
         <v>45730.57638888889</v>
@@ -11577,10 +11577,10 @@
         <v>45730.69444444445</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="K150" s="10" t="s">
-        <v>261</v>
+        <v>198</v>
+      </c>
+      <c r="K150" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="L150" s="10">
         <v>170.0</v>
@@ -11627,10 +11627,10 @@
         <v>123</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>27</v>
@@ -11648,7 +11648,7 @@
         <v>93</v>
       </c>
       <c r="K151" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L151" s="10">
         <v>155.0</v>
@@ -11713,7 +11713,7 @@
         <v>45730.49305555555</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K152" s="10" t="s">
         <v>46</v>
@@ -11766,13 +11766,13 @@
         <v>244</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H153" s="9">
         <v>45733.31944444445</v>
@@ -11834,7 +11834,7 @@
         <v>25</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>27</v>
@@ -11852,7 +11852,7 @@
         <v>51</v>
       </c>
       <c r="K154" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L154" s="10">
         <v>135.0</v>
@@ -11867,7 +11867,7 @@
         <v>47</v>
       </c>
       <c r="P154" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q154" s="13"/>
       <c r="R154" s="14">
@@ -11902,7 +11902,7 @@
         <v>244</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>39</v>
@@ -11985,7 +11985,7 @@
         <v>45733.70138888889</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K156" s="11" t="s">
         <v>59</v>
@@ -12053,7 +12053,7 @@
         <v>45735.64583333334</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K157" s="10" t="s">
         <v>35</v>
@@ -12174,7 +12174,7 @@
         <v>25</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F159" s="10" t="s">
         <v>27</v>
@@ -12242,7 +12242,7 @@
         <v>25</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F160" s="10" t="s">
         <v>39</v>
@@ -12310,7 +12310,7 @@
         <v>25</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F161" s="10" t="s">
         <v>27</v>
@@ -12325,7 +12325,7 @@
         <v>45735.75347222222</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K161" s="10" t="s">
         <v>63</v>
@@ -12375,7 +12375,7 @@
         <v>53</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E162" s="10" t="s">
         <v>33</v>
@@ -12384,7 +12384,7 @@
         <v>27</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H162" s="9">
         <v>45736.32638888889</v>
@@ -12452,7 +12452,7 @@
         <v>27</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H163" s="9">
         <v>45736.45138888889</v>
@@ -12514,7 +12514,7 @@
         <v>244</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>27</v>
@@ -12529,7 +12529,7 @@
         <v>45736.47916666666</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K164" s="10" t="s">
         <v>41</v>
@@ -12650,7 +12650,7 @@
         <v>25</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F166" s="10" t="s">
         <v>27</v>
@@ -12715,10 +12715,10 @@
         <v>65</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>27</v>
@@ -12733,7 +12733,7 @@
         <v>45737.64583333334</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K167" s="10" t="s">
         <v>116</v>
@@ -12783,7 +12783,7 @@
         <v>126</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>33</v>
@@ -12801,7 +12801,7 @@
         <v>45737.77430555555</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K168" s="10" t="s">
         <v>35</v>
@@ -12851,7 +12851,7 @@
         <v>65</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E169" s="10" t="s">
         <v>33</v>
@@ -12922,7 +12922,7 @@
         <v>25</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F170" s="10" t="s">
         <v>27</v>
@@ -12940,7 +12940,7 @@
         <v>73</v>
       </c>
       <c r="K170" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L170" s="10">
         <v>195.0</v>
@@ -12955,7 +12955,7 @@
         <v>47</v>
       </c>
       <c r="P170" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q170" s="13"/>
       <c r="R170" s="14">
@@ -12990,7 +12990,7 @@
         <v>244</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F171" s="10" t="s">
         <v>27</v>
@@ -13055,10 +13055,10 @@
         <v>65</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F172" s="10" t="s">
         <v>39</v>
@@ -13123,10 +13123,10 @@
         <v>24</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>27</v>
@@ -13141,7 +13141,7 @@
         <v>45740.51041666666</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K173" s="10" t="s">
         <v>74</v>
@@ -13191,7 +13191,7 @@
         <v>24</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>120</v>
@@ -13209,7 +13209,7 @@
         <v>45740.61458333334</v>
       </c>
       <c r="J174" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K174" s="10" t="s">
         <v>70</v>
@@ -13259,10 +13259,10 @@
         <v>24</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>27</v>
@@ -13327,7 +13327,7 @@
         <v>24</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>59</v>
@@ -13336,7 +13336,7 @@
         <v>27</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H176" s="9">
         <v>45740.73611111111</v>
@@ -13398,7 +13398,7 @@
         <v>25</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F177" s="10" t="s">
         <v>39</v>
@@ -13463,7 +13463,7 @@
         <v>24</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>119</v>
@@ -13531,10 +13531,10 @@
         <v>37</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F179" s="10" t="s">
         <v>27</v>
@@ -13552,7 +13552,7 @@
         <v>34</v>
       </c>
       <c r="K179" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L179" s="10">
         <v>180.0</v>
@@ -13601,7 +13601,7 @@
         <v>45</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>33</v>
@@ -13669,10 +13669,10 @@
         <v>37</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F181" s="10" t="s">
         <v>27</v>
@@ -13737,7 +13737,7 @@
         <v>45</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>59</v>
@@ -13755,7 +13755,7 @@
         <v>45742.75</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K182" s="11" t="s">
         <v>59</v>
@@ -13805,10 +13805,10 @@
         <v>45</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F183" s="10" t="s">
         <v>39</v>
@@ -13873,7 +13873,7 @@
         <v>53</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E184" s="10" t="s">
         <v>33</v>
@@ -13882,7 +13882,7 @@
         <v>27</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H184" s="9">
         <v>45743.32638888889</v>
@@ -14009,10 +14009,10 @@
         <v>53</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F186" s="10" t="s">
         <v>39</v>
@@ -14077,7 +14077,7 @@
         <v>53</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>46</v>
@@ -14213,10 +14213,10 @@
         <v>126</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>27</v>
@@ -14234,7 +14234,7 @@
         <v>93</v>
       </c>
       <c r="K189" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L189" s="10">
         <v>380.0</v>
@@ -14281,7 +14281,7 @@
         <v>126</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>69</v>
@@ -14299,7 +14299,7 @@
         <v>45744.41666666666</v>
       </c>
       <c r="J190" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K190" s="10" t="s">
         <v>70</v>
@@ -14352,7 +14352,7 @@
         <v>25</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F191" s="10" t="s">
         <v>27</v>
@@ -14367,10 +14367,10 @@
         <v>45744.69444444445</v>
       </c>
       <c r="J191" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K191" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L191" s="10">
         <v>170.0</v>
@@ -14417,7 +14417,7 @@
         <v>65</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E192" s="11" t="s">
         <v>26</v>
@@ -14485,10 +14485,10 @@
         <v>65</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F193" s="10" t="s">
         <v>27</v>
@@ -14503,10 +14503,10 @@
         <v>45744.77083333334</v>
       </c>
       <c r="J193" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K193" s="11" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="L193" s="10">
         <v>65.0</v>
@@ -14553,7 +14553,7 @@
         <v>126</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E194" s="10" t="s">
         <v>54</v>
@@ -14571,7 +14571,7 @@
         <v>45744.69791666666</v>
       </c>
       <c r="J194" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K194" s="10" t="s">
         <v>52</v>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="Q194" s="13"/>
       <c r="R194" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S194" s="19"/>
       <c r="T194" s="19"/>
@@ -14621,10 +14621,10 @@
         <v>24</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F195" s="10" t="s">
         <v>27</v>
@@ -14639,7 +14639,7 @@
         <v>45747.59722222222</v>
       </c>
       <c r="J195" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K195" s="10" t="s">
         <v>52</v>
@@ -14689,7 +14689,7 @@
         <v>24</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>33</v>
@@ -14698,7 +14698,7 @@
         <v>27</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H196" s="9">
         <v>45747.5</v>
@@ -14707,7 +14707,7 @@
         <v>45747.59722222222</v>
       </c>
       <c r="J196" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K196" s="10" t="s">
         <v>35</v>
@@ -14725,7 +14725,7 @@
         <v>47</v>
       </c>
       <c r="P196" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q196" s="13"/>
       <c r="R196" s="14">
@@ -14760,7 +14760,7 @@
         <v>25</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F197" s="10" t="s">
         <v>27</v>
@@ -14775,10 +14775,10 @@
         <v>45747.6875</v>
       </c>
       <c r="J197" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K197" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L197" s="10">
         <v>105.0</v>
@@ -14825,10 +14825,10 @@
         <v>24</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F198" s="10" t="s">
         <v>39</v>
@@ -14893,7 +14893,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>46</v>
@@ -14964,7 +14964,7 @@
         <v>25</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>27</v>
@@ -14982,7 +14982,7 @@
         <v>99</v>
       </c>
       <c r="K200" s="10" t="s">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="L200" s="25">
         <v>275.0</v>
@@ -15049,7 +15049,7 @@
         <v>45749.70138888889</v>
       </c>
       <c r="J201" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K201" s="26" t="s">
         <v>74</v>
@@ -15117,7 +15117,7 @@
         <v>45749.60763888889</v>
       </c>
       <c r="J202" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K202" s="26" t="s">
         <v>70</v>
@@ -15167,7 +15167,7 @@
         <v>53</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E203" s="26" t="s">
         <v>69</v>
@@ -15253,7 +15253,7 @@
         <v>45750.43055555555</v>
       </c>
       <c r="J204" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K204" s="26" t="s">
         <v>52</v>
@@ -15321,7 +15321,7 @@
         <v>45750.46944444445</v>
       </c>
       <c r="J205" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K205" s="26" t="s">
         <v>46</v>
@@ -15389,7 +15389,7 @@
         <v>45751.59375</v>
       </c>
       <c r="J206" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K206" s="26" t="s">
         <v>52</v>
@@ -15439,7 +15439,7 @@
         <v>126</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E207" s="26" t="s">
         <v>35</v>
@@ -15457,7 +15457,7 @@
         <v>45751.65972222222</v>
       </c>
       <c r="J207" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K207" s="26" t="s">
         <v>35</v>
@@ -15575,7 +15575,7 @@
         <v>126</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E209" s="26" t="s">
         <v>298</v>
@@ -15661,7 +15661,7 @@
         <v>45751.43055555555</v>
       </c>
       <c r="J210" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K210" s="26" t="s">
         <v>52</v>
@@ -15711,7 +15711,7 @@
         <v>126</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E211" s="26" t="s">
         <v>299</v>
@@ -15779,7 +15779,7 @@
         <v>126</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E212" s="11" t="s">
         <v>59</v>
@@ -15797,7 +15797,7 @@
         <v>45751.70833333334</v>
       </c>
       <c r="J212" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K212" s="11" t="s">
         <v>59</v>
@@ -15847,7 +15847,7 @@
         <v>65</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E213" s="26" t="s">
         <v>301</v>
@@ -15983,7 +15983,7 @@
         <v>24</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E215" s="26" t="s">
         <v>302</v>
@@ -16054,7 +16054,7 @@
         <v>25</v>
       </c>
       <c r="E216" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F216" s="26" t="s">
         <v>39</v>
@@ -16119,7 +16119,7 @@
         <v>37</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E217" s="26" t="s">
         <v>113</v>
@@ -16187,7 +16187,7 @@
         <v>37</v>
       </c>
       <c r="D218" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E218" s="26" t="s">
         <v>33</v>
@@ -16255,7 +16255,7 @@
         <v>37</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E219" s="26" t="s">
         <v>303</v>
@@ -16394,7 +16394,7 @@
         <v>295</v>
       </c>
       <c r="E221" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F221" s="26" t="s">
         <v>39</v>
@@ -16459,7 +16459,7 @@
         <v>126</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E222" s="26" t="s">
         <v>305</v>
@@ -16479,8 +16479,8 @@
       <c r="J222" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="K222" s="26" t="s">
-        <v>305</v>
+      <c r="K222" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="L222" s="25">
         <v>405.0</v>
@@ -16563,7 +16563,7 @@
         <v>47</v>
       </c>
       <c r="P223" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q223" s="30"/>
       <c r="R223" s="17">
@@ -16615,8 +16615,8 @@
       <c r="J224" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="K224" s="26" t="s">
-        <v>307</v>
+      <c r="K224" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L224" s="25">
         <v>70.0</v>
@@ -16681,7 +16681,7 @@
         <v>45758.47916666666</v>
       </c>
       <c r="J225" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K225" s="26" t="s">
         <v>52</v>
@@ -16749,7 +16749,7 @@
         <v>45758.79166666666</v>
       </c>
       <c r="J226" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K226" s="26" t="s">
         <v>52</v>
@@ -16817,7 +16817,7 @@
         <v>45758.8125</v>
       </c>
       <c r="J227" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K227" s="26" t="s">
         <v>52</v>
@@ -16876,7 +16876,7 @@
         <v>27</v>
       </c>
       <c r="G228" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H228" s="24">
         <v>45702.32986111111</v>
@@ -16885,7 +16885,7 @@
         <v>45702.34027777778</v>
       </c>
       <c r="J228" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K228" s="26" t="s">
         <v>52</v>
@@ -17089,8 +17089,8 @@
       <c r="J231" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K231" s="26" t="s">
-        <v>313</v>
+      <c r="K231" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L231" s="25">
         <v>105.0</v>
@@ -17222,7 +17222,7 @@
         <v>45763.69444444445</v>
       </c>
       <c r="J233" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K233" s="26" t="s">
         <v>35</v>
@@ -17342,7 +17342,7 @@
         <v>37</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E235" s="26" t="s">
         <v>50</v>
@@ -17548,7 +17548,7 @@
         <v>37</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E238" s="26" t="s">
         <v>316</v>
@@ -17959,7 +17959,7 @@
         <v>25</v>
       </c>
       <c r="E244" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F244" s="26" t="s">
         <v>39</v>
@@ -18042,7 +18042,7 @@
         <v>45771.54861111111</v>
       </c>
       <c r="J245" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K245" s="26" t="s">
         <v>46</v>
@@ -18092,7 +18092,7 @@
         <v>123</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E246" s="26" t="s">
         <v>319</v>
@@ -18160,10 +18160,10 @@
         <v>126</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E247" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F247" s="26" t="s">
         <v>27</v>
@@ -18228,7 +18228,7 @@
         <v>126</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E248" s="26" t="s">
         <v>321</v>
@@ -18314,7 +18314,7 @@
         <v>45772.62152777778</v>
       </c>
       <c r="J249" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K249" s="26" t="s">
         <v>35</v>
@@ -18364,7 +18364,7 @@
         <v>126</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E250" s="26" t="s">
         <v>33</v>
@@ -18382,7 +18382,7 @@
         <v>45772.4375</v>
       </c>
       <c r="J250" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K250" s="26" t="s">
         <v>35</v>
@@ -18432,7 +18432,7 @@
         <v>65</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E251" s="26" t="s">
         <v>260</v>
@@ -18450,7 +18450,7 @@
         <v>45772.6875</v>
       </c>
       <c r="J251" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K251" s="26" t="s">
         <v>52</v>
@@ -18500,7 +18500,7 @@
         <v>126</v>
       </c>
       <c r="D252" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E252" s="26" t="s">
         <v>260</v>
@@ -18518,7 +18518,7 @@
         <v>45772.70833333334</v>
       </c>
       <c r="J252" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K252" s="26" t="s">
         <v>52</v>
@@ -18577,7 +18577,7 @@
         <v>27</v>
       </c>
       <c r="G253" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H253" s="24">
         <v>45775.33333333334</v>
@@ -18637,7 +18637,7 @@
         <v>24</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E254" s="26" t="s">
         <v>324</v>
@@ -18723,7 +18723,7 @@
         <v>45775.75</v>
       </c>
       <c r="J255" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K255" s="26" t="s">
         <v>63</v>
@@ -18910,7 +18910,6 @@
         <filter val="LARINGOSCOPIA DE SUSPENSÃO"/>
         <filter val="LARINGECTOMIA PARCIAL + TRAQUEOSTOMIA"/>
         <filter val="LARINGECTOMIA PARCIAL SUPRACRICOIDEA + EC"/>
-        <filter val="TRAQUEOSTOMIA DE URGENCIA + LARINGOSCOPIA DE SUSPENSÃO"/>
         <filter val="LARINGECTOMIA PARCIAL"/>
         <filter val="LARINGECTOMIA PARCIAL FRONTO-LATERAL DIR. + RETALHO MUSCULAR"/>
       </filters>
